--- a/Provas/Prova Simulado 1.15/CIS.xlsx
+++ b/Provas/Prova Simulado 1.15/CIS.xlsx
@@ -1,30 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TI-2\Desktop\Prova Simulado 1.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MulinhaGPlays\Documents\GitHub\WorldSkills\Provas\Prova Simulado 1.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D616715-71D2-4708-83E8-6CE30738837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seção 01" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Peter Neate</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +294,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -328,7 +342,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,17 +426,17 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -440,22 +460,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,6 +468,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -829,11 +849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -934,23 +954,23 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -965,34 +985,34 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="18"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G16">
@@ -1000,19 +1020,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="D17" s="20" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="D17" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G18">
@@ -1020,19 +1040,19 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="D19" s="20" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="D19" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G20">
@@ -1040,19 +1060,19 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="D21" s="20" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="D21" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G22">
@@ -1060,19 +1080,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="D23" s="20" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="D23" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>43</v>
       </c>
       <c r="G24">
@@ -1080,19 +1100,19 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="D25" s="20" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="D25" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="20" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="G26">
@@ -1100,19 +1120,19 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="D27" s="20" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="D27" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="20" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G28">
@@ -1120,55 +1140,55 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="D29" s="20" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="D29" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C30" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="C31" s="19"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="21"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="15" t="s">
+      <c r="F35" s="20"/>
+      <c r="G35" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -1183,414 +1203,414 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="13" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="20" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="16">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="20" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="20" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="20" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21">
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16">
         <v>0.7</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16">
         <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="20" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="20" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="20" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="20" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21">
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="20" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="21"/>
-      <c r="C50" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="20" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21">
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="20" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="21"/>
-      <c r="C52" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21">
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B53" s="21"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="21"/>
-      <c r="C54" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="20" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21">
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="20" t="s">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="21"/>
-      <c r="C56" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="20" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21">
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
         <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B57" s="21"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="21"/>
-      <c r="C58" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="20" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21">
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16">
         <v>1.25</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="21"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20" t="s">
+      <c r="B59" s="16"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B60" s="21"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20" t="s">
+      <c r="B60" s="16"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B61" s="21"/>
-      <c r="C61" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="20" t="s">
+      <c r="B61" s="16"/>
+      <c r="C61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21">
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B62" s="21"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B63" s="21"/>
-      <c r="C63" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="20" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21">
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16">
         <v>0.9</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="21"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20" t="s">
+      <c r="B64" s="16"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B65" s="21"/>
-      <c r="C65" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="20" t="s">
+      <c r="B65" s="16"/>
+      <c r="C65" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21">
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16">
         <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="20" t="s">
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="15" t="s">
+      <c r="F68" s="20"/>
+      <c r="G68" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -1605,38 +1625,38 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="13" t="s">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="16"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="18"/>
-      <c r="G73" s="13" t="s">
+      <c r="F73" s="20"/>
+      <c r="G73" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -1651,38 +1671,38 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="13" t="s">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="14"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="13" t="s">
+      <c r="F78" s="20"/>
+      <c r="G78" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -1697,25 +1717,35 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="13" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="14"/>
+      <c r="G79" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="G68:G69"/>
@@ -1724,21 +1754,11 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Provas/Prova Simulado 1.15/CIS.xlsx
+++ b/Provas/Prova Simulado 1.15/CIS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MulinhaGPlays\Documents\GitHub\WorldSkills\Provas\Prova Simulado 1.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\android\Documents\GitHub\WorldSkills\Provas\Prova Simulado 1.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D616715-71D2-4708-83E8-6CE30738837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Seção 01" sheetId="4" r:id="rId1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Peter Neate</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -342,7 +341,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -470,6 +475,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -482,7 +490,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -849,11 +857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -954,23 +962,23 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -985,17 +993,17 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1012,7 +1020,7 @@
       <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="17" t="s">
         <v>42</v>
       </c>
       <c r="G16">
@@ -1022,7 +1030,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1032,7 +1040,7 @@
       <c r="C18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G18">
@@ -1042,7 +1050,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1052,7 +1060,7 @@
       <c r="C20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G20">
@@ -1062,7 +1070,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1072,7 +1080,7 @@
       <c r="C22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="17" t="s">
         <v>40</v>
       </c>
       <c r="G22">
@@ -1082,7 +1090,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1092,7 +1100,7 @@
       <c r="C24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
       <c r="G24">
@@ -1102,7 +1110,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1112,7 +1120,7 @@
       <c r="C26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="17" t="s">
         <v>44</v>
       </c>
       <c r="G26">
@@ -1122,7 +1130,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1132,7 +1140,7 @@
       <c r="C28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G28">
@@ -1142,7 +1150,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1150,13 +1158,13 @@
       <c r="C30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="C31" s="14"/>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="17" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1172,23 +1180,23 @@
       <c r="D34" s="16"/>
     </row>
     <row r="35" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -1203,17 +1211,17 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="18"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
@@ -1234,7 +1242,7 @@
       <c r="C38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="16"/>
@@ -1249,7 +1257,7 @@
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="16"/>
@@ -1262,7 +1270,7 @@
       <c r="C40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="17" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="16"/>
@@ -1275,7 +1283,7 @@
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E41" s="16"/>
@@ -1288,7 +1296,7 @@
       <c r="C42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E42" s="16"/>
@@ -1301,7 +1309,7 @@
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="17" t="s">
         <v>68</v>
       </c>
       <c r="E43" s="16"/>
@@ -1340,7 +1348,7 @@
       <c r="C46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E46" s="16"/>
@@ -1353,7 +1361,7 @@
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="16"/>
@@ -1366,7 +1374,7 @@
       <c r="C48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="16"/>
@@ -1378,7 +1386,7 @@
     <row r="49" spans="2:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="16"/>
@@ -1594,23 +1602,23 @@
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="17" t="s">
+      <c r="F68" s="21"/>
+      <c r="G68" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -1625,37 +1633,37 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="18"/>
+      <c r="G69" s="19"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="20"/>
+      <c r="F73" s="21"/>
       <c r="G73" s="7" t="s">
         <v>5</v>
       </c>
@@ -1671,10 +1679,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="7" t="s">
         <v>6</v>
       </c>
@@ -1686,22 +1694,22 @@
     <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="20"/>
+      <c r="F78" s="21"/>
       <c r="G78" s="7" t="s">
         <v>5</v>
       </c>
@@ -1717,10 +1725,10 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="7" t="s">
         <v>6</v>
       </c>
@@ -1731,6 +1739,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
@@ -1740,25 +1764,9 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Provas/Prova Simulado 1.15/CIS.xlsx
+++ b/Provas/Prova Simulado 1.15/CIS.xlsx
@@ -356,13 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,22 +475,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -860,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="C54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -962,23 +965,23 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -993,17 +996,17 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="18"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1020,7 +1023,7 @@
       <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G16">
@@ -1030,7 +1033,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1040,7 +1043,7 @@
       <c r="C18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="23" t="s">
         <v>39</v>
       </c>
       <c r="G18">
@@ -1050,7 +1053,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1060,7 +1063,7 @@
       <c r="C20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="21" t="s">
         <v>41</v>
       </c>
       <c r="G20">
@@ -1070,7 +1073,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1080,7 +1083,7 @@
       <c r="C22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="21" t="s">
         <v>40</v>
       </c>
       <c r="G22">
@@ -1090,7 +1093,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1100,7 +1103,7 @@
       <c r="C24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G24">
@@ -1110,7 +1113,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1120,7 +1123,7 @@
       <c r="C26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="21" t="s">
         <v>44</v>
       </c>
       <c r="G26">
@@ -1130,7 +1133,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1140,7 +1143,7 @@
       <c r="C28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G28">
@@ -1150,7 +1153,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1158,13 +1161,13 @@
       <c r="C30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="C31" s="14"/>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1180,23 +1183,23 @@
       <c r="D34" s="16"/>
     </row>
     <row r="35" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="18" t="s">
+      <c r="F35" s="20"/>
+      <c r="G35" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -1211,17 +1214,17 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="19"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
@@ -1242,7 +1245,7 @@
       <c r="C38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="16"/>
@@ -1257,7 +1260,7 @@
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E39" s="16"/>
@@ -1270,7 +1273,7 @@
       <c r="C40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="21" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="16"/>
@@ -1283,7 +1286,7 @@
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E41" s="16"/>
@@ -1296,7 +1299,7 @@
       <c r="C42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="22" t="s">
         <v>67</v>
       </c>
       <c r="E42" s="16"/>
@@ -1309,7 +1312,7 @@
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="22" t="s">
         <v>68</v>
       </c>
       <c r="E43" s="16"/>
@@ -1322,7 +1325,7 @@
       <c r="C44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="16"/>
@@ -1335,7 +1338,7 @@
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E45" s="16"/>
@@ -1348,7 +1351,7 @@
       <c r="C46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E46" s="16"/>
@@ -1361,7 +1364,7 @@
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="16"/>
@@ -1374,7 +1377,7 @@
       <c r="C48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="16"/>
@@ -1386,7 +1389,7 @@
     <row r="49" spans="2:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E49" s="16"/>
@@ -1446,7 +1449,7 @@
       <c r="C54" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E54" s="16"/>
@@ -1458,7 +1461,7 @@
     <row r="55" spans="2:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="21" t="s">
         <v>65</v>
       </c>
       <c r="E55" s="16"/>
@@ -1552,7 +1555,7 @@
       <c r="C63" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="21" t="s">
         <v>69</v>
       </c>
       <c r="E63" s="16"/>
@@ -1602,23 +1605,23 @@
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="18" t="s">
+      <c r="F68" s="20"/>
+      <c r="G68" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -1633,37 +1636,37 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="19"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="21"/>
+      <c r="F73" s="20"/>
       <c r="G73" s="7" t="s">
         <v>5</v>
       </c>
@@ -1679,10 +1682,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="7" t="s">
         <v>6</v>
       </c>
@@ -1694,22 +1697,22 @@
     <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="21"/>
+      <c r="F78" s="20"/>
       <c r="G78" s="7" t="s">
         <v>5</v>
       </c>
@@ -1725,10 +1728,10 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="7" t="s">
         <v>6</v>
       </c>
@@ -1739,22 +1742,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
@@ -1767,6 +1754,22 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
